--- a/Google AppScript/AppScript Generator/TableDesign.xlsx
+++ b/Google AppScript/AppScript Generator/TableDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Islam\World\01_STZ\DataLine\Github\Internal\Google AppScript\AppScript Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0900738-4BBE-495A-804F-E9DCE0457A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F6DA17-41E0-4697-96B6-3AF8CFEA3908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{182BECEF-A2D9-4B2C-A341-9F1C7EE47CD6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>screencolumn</t>
   </si>
@@ -34,30 +34,15 @@
     <t>datatype</t>
   </si>
   <si>
-    <t>Product Name</t>
-  </si>
-  <si>
     <t>DataTypes</t>
   </si>
   <si>
     <t>sno</t>
   </si>
   <si>
-    <t>Product Code</t>
-  </si>
-  <si>
     <t>internalcolumn</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Total Price</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -67,17 +52,204 @@
     <t>date</t>
   </si>
   <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>POD</t>
+  </si>
+  <si>
+    <t>Shipping Inst Rec Date</t>
+  </si>
+  <si>
+    <t>Gate Pass Rec Date</t>
+  </si>
+  <si>
+    <t>Loading Confirmation Rec Date</t>
+  </si>
+  <si>
+    <t>Arrival Notification Sent Date</t>
+  </si>
+  <si>
+    <t>Invoice Prepared Date</t>
+  </si>
+  <si>
+    <t>HBL Date</t>
+  </si>
+  <si>
+    <t>MBL Date</t>
+  </si>
+  <si>
+    <t>Documents Released Date</t>
+  </si>
+  <si>
+    <t>Payment Rec Date</t>
+  </si>
+  <si>
+    <t>Entry Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Lead Date</t>
+  </si>
+  <si>
+    <t>Cancelled Date</t>
+  </si>
+  <si>
+    <t>Period Of Shpmt</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>Rate Rcvd Date</t>
+  </si>
+  <si>
+    <t>Buy Rate</t>
+  </si>
+  <si>
+    <t>Sell Rate</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Qtn Sent Date</t>
+  </si>
+  <si>
+    <t>Cnfm Rcvd Date</t>
+  </si>
+  <si>
+    <t>Job Date</t>
+  </si>
+  <si>
+    <t>Cro Received Date</t>
+  </si>
+  <si>
+    <t>Cro Sent To Trans Date</t>
+  </si>
+  <si>
+    <t>Full Moved To Terminal</t>
+  </si>
+  <si>
+    <t>Manifest Rec Date From Sl</t>
+  </si>
+  <si>
+    <t>Shiper Cl Doc Date</t>
+  </si>
+  <si>
+    <t>Doc Sent To Broker Date</t>
+  </si>
+  <si>
+    <t>Manifest Sent To Broker Date</t>
+  </si>
+  <si>
+    <t>Gate Pass Sent To Trans Date</t>
+  </si>
+  <si>
+    <t>Pre Alert Sent Date</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Rate Req Date</t>
+  </si>
+  <si>
+    <t>Cro No</t>
+  </si>
+  <si>
+    <t>Contr No</t>
+  </si>
+  <si>
+    <t>Cntr 20</t>
+  </si>
+  <si>
+    <t>Enq Date</t>
+  </si>
+  <si>
+    <t>Job No</t>
+  </si>
+  <si>
+    <t>Contr No Rec Date</t>
+  </si>
+  <si>
+    <t>Seal No</t>
+  </si>
+  <si>
+    <t>Seal No Rec Date</t>
+  </si>
+  <si>
+    <t>Final Bayan or Ok To Load Rec Date</t>
+  </si>
+  <si>
+    <t>Debit or Credit Note  Date</t>
+  </si>
+  <si>
+    <t>ETA Date</t>
+  </si>
+  <si>
+    <t>Telex Release or Seaway Bill Date</t>
+  </si>
+  <si>
+    <t>Obl or Guarantee Collected Date</t>
+  </si>
+  <si>
+    <t>WBill No</t>
+  </si>
+  <si>
+    <t>WBill Sent Date</t>
+  </si>
+  <si>
+    <t>Bkg Sent To Line or Agt Date</t>
+  </si>
+  <si>
+    <t>Bl Draft  From Sl Rec Date</t>
+  </si>
+  <si>
+    <t>Bl Draft To Cust Sent Date</t>
+  </si>
+  <si>
+    <t>Bl Draft Conf From Cust Rec Date</t>
+  </si>
+  <si>
     <t>RecId</t>
+  </si>
+  <si>
+    <t>Cntr 40_40Hc</t>
+  </si>
+  <si>
+    <t>Ship Inst Sent Date To Sl</t>
+  </si>
+  <si>
+    <t>AIR_LCR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,14 +272,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F5F38AF0-E947-4BB1-802E-12647BE95CDB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}" name="Table2" displayName="Table2" ref="A1:D60" totalsRowShown="0">
+  <autoFilter ref="A1:D60" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}"/>
   <tableColumns count="4">
     <tableColumn id="4" xr3:uid="{5F61DD10-C858-4939-A865-63CF89F0B3A7}" name="sno">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
@@ -446,29 +620,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ADBD14-6A98-4FE1-8D95-C2E255CC4B69}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -480,30 +654,30 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C2" t="str">
         <f>SUBSTITUTE(B2," ", "")</f>
         <v>RecId</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A7" si="0">ROW(A2)</f>
+        <f t="shared" ref="A3:A60" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C7" si="1">SUBSTITUTE(B3," ", "")</f>
-        <v>ProductName</v>
+        <f>SUBSTITUTE(B3," ", "")</f>
+        <v>EntryDate</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -512,14 +686,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>ProductCode</v>
+        <f t="shared" ref="C4:C8" si="1">SUBSTITUTE(B4," ", "")</f>
+        <v>Status</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -528,14 +702,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>Price</v>
+        <v>CustomerName</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -544,14 +718,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>Discount</v>
+        <v>LeadDate</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -560,17 +734,866 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>TotalPrice</v>
+        <v>CancelledDate</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>EnqDate</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="str">
+        <f>SUBSTITUTE(B9," ", "")</f>
+        <v>POL</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C41" si="2">SUBSTITUTE(B10," ", "")</f>
+        <v>POD</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>Cntr20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>Cntr40_40Hc</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
+        <v>AIR_LCR</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v>PeriodOfShpmt</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="2"/>
+        <v>Commodity</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="2"/>
+        <v>RateReqDate</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="2"/>
+        <v>RateRcvdDate</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="2"/>
+        <v>BuyRate</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="2"/>
+        <v>SellRate</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="2"/>
+        <v>Profit</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="2"/>
+        <v>QtnSentDate</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="2"/>
+        <v>CnfmRcvdDate</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="2"/>
+        <v>JobDate</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="2"/>
+        <v>JobNo</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="2"/>
+        <v>BkgSentToLineorAgtDate</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="2"/>
+        <v>CroReceivedDate</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="2"/>
+        <v>CroSentToTransDate</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="2"/>
+        <v>CroNo</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="2"/>
+        <v>ContrNo</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="2"/>
+        <v>ContrNoRecDate</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="2"/>
+        <v>WBillNo</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="2"/>
+        <v>WBillSentDate</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="2"/>
+        <v>SealNo</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="2"/>
+        <v>SealNoRecDate</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="2"/>
+        <v>FullMovedToTerminal</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="2"/>
+        <v>ShippingInstRecDate</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="2"/>
+        <v>ShipInstSentDateToSl</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="2"/>
+        <v>ManifestRecDateFromSl</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="2"/>
+        <v>ShiperClDocDate</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="2"/>
+        <v>BlDraftFromSlRecDate</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="2"/>
+        <v>BlDraftToCustSentDate</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" ref="C42:C60" si="3">SUBSTITUTE(B42," ", "")</f>
+        <v>BlDraftConfFromCustRecDate</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="3"/>
+        <v>DocSentToBrokerDate</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="3"/>
+        <v>ManifestSentToBrokerDate</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="3"/>
+        <v>GatePassRecDate</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="3"/>
+        <v>GatePassSentToTransDate</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="3"/>
+        <v>FinalBayanorOkToLoadRecDate</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="3"/>
+        <v>LoadingConfirmationRecDate</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="3"/>
+        <v>PreAlertSentDate</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="3"/>
+        <v>ArrivalNotificationSentDate</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="3"/>
+        <v>InvoicePreparedDate</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="3"/>
+        <v>HBLDate</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="3"/>
+        <v>MBLDate</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="3"/>
+        <v>DebitorCreditNoteDate</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="3"/>
+        <v>ETADate</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="3"/>
+        <v>TelexReleaseorSeawayBillDate</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="3"/>
+        <v>OblorGuaranteeCollectedDate</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="3"/>
+        <v>DocumentsReleasedDate</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="3"/>
+        <v>PaymentRecDate</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="3"/>
+        <v>Remarks</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -583,7 +1606,7 @@
           <x14:formula1>
             <xm:f>DataType!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D7</xm:sqref>
+          <xm:sqref>D2:D60</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -606,22 +1629,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
